--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -24,10 +24,10 @@
     <t>索引</t>
   </si>
   <si>
-    <t>值类型</t>
-  </si>
-  <si>
-    <t>值(int)</t>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英文</t>
   </si>
   <si>
     <t>int</t>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>Apply</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>GenshinImpact</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>Card</t>
   </si>
 </sst>
 </file>
@@ -82,7 +103,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,10 +112,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,77 +178,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +235,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +265,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,43 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,127 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -480,6 +485,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +561,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="14.5083333333333" customWidth="1"/>
   </cols>
@@ -1102,7 +1116,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>100001</v>
@@ -1116,7 +1130,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>100002</v>
@@ -1130,7 +1144,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>100003</v>
@@ -1144,7 +1158,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>100004</v>
@@ -1154,6 +1168,76 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100008</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100009</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Card</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>Audio</t>
   </si>
 </sst>
 </file>
@@ -98,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,6 +121,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -121,65 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +228,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,14 +252,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -242,15 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,25 +274,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,43 +406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,109 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +501,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -516,13 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +546,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,37 +585,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,94 +624,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1238,6 +1247,34 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100010</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100011</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,42 @@
   </si>
   <si>
     <t>Audio</t>
+  </si>
+  <si>
+    <t>背景音量开关</t>
+  </si>
+  <si>
+    <t>Background volume switch</t>
+  </si>
+  <si>
+    <t>背景音量大小</t>
+  </si>
+  <si>
+    <t>Background volume</t>
+  </si>
+  <si>
+    <t>特效音开关</t>
+  </si>
+  <si>
+    <t>Sound volume switch</t>
+  </si>
+  <si>
+    <t>特效音大小</t>
+  </si>
+  <si>
+    <t>Sound volume</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -112,13 +148,19 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -573,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,34 +627,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,102 +663,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,15 +1115,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="14.5083333333333" customWidth="1"/>
+    <col min="1" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.0333333333333" customWidth="1"/>
+    <col min="5" max="16384" width="14.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1275,6 +1322,91 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100012</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100013</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100014</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100015</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100016</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>100017</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>加载中，请稍后。。。</t>
+  </si>
+  <si>
+    <t>Loading, please wait...</t>
   </si>
 </sst>
 </file>
@@ -143,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -164,65 +170,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -253,14 +260,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -284,17 +283,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +322,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,25 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,139 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +531,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,24 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,6 +566,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,145 +621,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,15 +1121,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="1" max="2" width="14.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="31.0333333333333" customWidth="1"/>
     <col min="5" max="16384" width="14.5083333333333" customWidth="1"/>
   </cols>
@@ -1407,6 +1414,20 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100018</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Loading, please wait...</t>
+  </si>
+  <si>
+    <t>游戏试验场</t>
+  </si>
+  <si>
+    <t>Game Proving Ground</t>
   </si>
 </sst>
 </file>
@@ -170,12 +176,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -184,45 +211,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,45 +282,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +557,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,23 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,15 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -621,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,16 +639,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,16 +660,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,94 +675,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1430,6 +1436,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100019</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1443,7 +1463,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1480,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>Game Proving Ground</t>
+  </si>
+  <si>
+    <t>游戏列表</t>
+  </si>
+  <si>
+    <t>Game list</t>
+  </si>
+  <si>
+    <t>打砖块</t>
+  </si>
+  <si>
+    <t>Block Breaker</t>
+  </si>
+  <si>
+    <t>Card game</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
   </si>
 </sst>
 </file>
@@ -155,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -176,6 +197,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,12 +218,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -196,46 +254,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,70 +303,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,31 +349,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,151 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,9 +560,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +593,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,6 +613,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,26 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1448,6 +1469,62 @@
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>100020</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100021</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100022</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100023</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Undetermined</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>Go back</t>
   </si>
 </sst>
 </file>
@@ -176,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -196,6 +202,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -204,61 +239,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,69 +317,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,37 +355,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,121 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +546,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,17 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,30 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,6 +635,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1525,6 +1531,20 @@
       </c>
       <c r="D26" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100024</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Go back</t>
+  </si>
+  <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>Menu</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1545,6 +1551,20 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100025</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -60,10 +60,10 @@
     <t>Option</t>
   </si>
   <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>Exit</t>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
   </si>
   <si>
     <t>应用</t>
@@ -174,13 +174,22 @@
     <t>返回</t>
   </si>
   <si>
-    <t>Go back</t>
+    <t>Back</t>
   </si>
   <si>
     <t>菜单</t>
   </si>
   <si>
     <t>Menu</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>返回开始界面</t>
   </si>
 </sst>
 </file>
@@ -188,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,7 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +246,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,22 +285,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,45 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -313,25 +325,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +353,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,13 +370,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,157 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,16 +564,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -573,8 +582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +599,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,31 +637,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +652,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD29"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1565,6 +1574,34 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100026</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100027</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>返回开始界面</t>
+  </si>
+  <si>
+    <t>Back to start interface</t>
+  </si>
+  <si>
+    <t>最终得分</t>
+  </si>
+  <si>
+    <t>Final score</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>Full screen</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -197,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -217,6 +244,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -225,8 +282,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,23 +320,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,41 +345,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +588,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,26 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,15 +688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1601,7 +1628,63 @@
         <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100028</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>100029</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100030</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100031</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -217,6 +217,30 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>W、S键上下移动，Esc弹出菜单</t>
+  </si>
+  <si>
+    <t>W, S keys move up and down, Esc pops up the menu</t>
+  </si>
+  <si>
+    <t>重新开始</t>
+  </si>
+  <si>
+    <t>Restart</t>
   </si>
 </sst>
 </file>
@@ -1196,17 +1220,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="31.0333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="4" max="4" width="45.55" customWidth="1"/>
     <col min="5" max="16384" width="14.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,6 +1709,62 @@
       </c>
       <c r="D34" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1">
+        <v>100032</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100033</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>100034</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>100035</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -231,16 +231,34 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>W、S键上下移动，Esc弹出菜单</t>
-  </si>
-  <si>
-    <t>W, S keys move up and down, Esc pops up the menu</t>
+    <t>W、S键上下移动，Esc弹出菜单。游戏结束时才会记录最高分。</t>
+  </si>
+  <si>
+    <t>W, S keys move up and down, Esc pops up the menu. The highest score will be recorded at the end of the game.</t>
   </si>
   <si>
     <t>重新开始</t>
   </si>
   <si>
     <t>Restart</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>读取</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>历史最高</t>
+  </si>
+  <si>
+    <t>Highest in history</t>
   </si>
 </sst>
 </file>
@@ -1220,16 +1238,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="47.7416666666667" customWidth="1"/>
     <col min="4" max="4" width="45.55" customWidth="1"/>
     <col min="5" max="16384" width="14.5083333333333" customWidth="1"/>
   </cols>
@@ -1765,6 +1783,48 @@
       </c>
       <c r="D38" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>100036</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>100037</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>100038</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelTools/Languages.xlsx
+++ b/Config/ExcelTools/Languages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>Highest in history</t>
+  </si>
+  <si>
+    <t>正在保存</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>保存完成</t>
+  </si>
+  <si>
+    <t>Save complete</t>
+  </si>
+  <si>
+    <t>正在读取</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>读取完成</t>
+  </si>
+  <si>
+    <t>Read complete</t>
   </si>
 </sst>
 </file>
@@ -267,8 +291,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -284,6 +308,95 @@
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -294,13 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -309,50 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -362,34 +424,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,20 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,49 +463,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,37 +613,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,91 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,8 +675,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,17 +711,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,24 +746,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -738,10 +762,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +774,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1825,6 +1849,62 @@
       </c>
       <c r="D41" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1">
+        <v>100039</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100040</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100041</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100042</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
